--- a/src/main/testdata/producttestdata.xlsx
+++ b/src/main/testdata/producttestdata.xlsx
@@ -50,10 +50,10 @@
     <t>Storable Product</t>
   </si>
   <si>
-    <t>testref91</t>
-  </si>
-  <si>
-    <t>bar1211</t>
+    <t>testref95</t>
+  </si>
+  <si>
+    <t>bar1223</t>
   </si>
 </sst>
 </file>

--- a/src/main/testdata/producttestdata.xlsx
+++ b/src/main/testdata/producttestdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>producttype</t>
-  </si>
-  <si>
-    <t>salep</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>intref</t>
@@ -383,24 +377,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -413,31 +405,19 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
